--- a/doc/instructions.xlsx
+++ b/doc/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyh16\Desktop\loongarch_cpu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ED550C-1874-43AA-954A-7CCE7889DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07C5D5-2A2C-4D4F-BC2A-12762FF1E863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>rk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,85 +59,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>si20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDI.W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLT(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGE(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off[15:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off[25:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD.W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST.W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LU12I.W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PCADDU12I</t>
-  </si>
-  <si>
-    <t>si20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDI.W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLT(U)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGE(U)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>off[15:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIRL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>off[25:16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LD.W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST.W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XORI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +218,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,6 +471,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,10 +768,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AH26"/>
+  <dimension ref="B1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -831,133 +882,133 @@
       </c>
     </row>
     <row r="2" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>0</v>
-      </c>
-      <c r="R2" s="12">
-        <v>0</v>
-      </c>
-      <c r="S2" s="12">
-        <v>0</v>
-      </c>
-      <c r="T2" s="11">
-        <v>0</v>
-      </c>
-      <c r="U2" s="12">
-        <v>0</v>
-      </c>
-      <c r="V2" s="12">
-        <v>0</v>
-      </c>
-      <c r="W2" s="12">
-        <v>0</v>
-      </c>
-      <c r="X2" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="13">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23">
+        <v>1</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <v>1</v>
+      </c>
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23">
+        <v>0</v>
+      </c>
+      <c r="P2" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>0</v>
+      </c>
+      <c r="R2" s="23">
+        <v>0</v>
+      </c>
+      <c r="S2" s="23">
+        <v>0</v>
+      </c>
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="23">
+        <v>0</v>
+      </c>
+      <c r="V2" s="23">
+        <v>0</v>
+      </c>
+      <c r="W2" s="23">
+        <v>0</v>
+      </c>
+      <c r="X2" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -988,7 +1039,7 @@
     </row>
     <row r="4" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
@@ -1012,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -1351,7 +1402,7 @@
     </row>
     <row r="9" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
@@ -1428,7 +1479,7 @@
     </row>
     <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11">
         <v>0</v>
@@ -1505,7 +1556,7 @@
     </row>
     <row r="11" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="16">
         <v>0</v>
@@ -1580,9 +1631,9 @@
       <c r="AG11" s="19"/>
       <c r="AH11" s="20"/>
     </row>
-    <row r="12" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12" s="11">
         <v>0</v>
@@ -1606,16 +1657,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
@@ -1645,40 +1696,40 @@
     </row>
     <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="15">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
         <v>0</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
@@ -1708,7 +1759,7 @@
     </row>
     <row r="14" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11">
         <v>0</v>
@@ -1717,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12">
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
         <v>0</v>
       </c>
       <c r="I14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="12">
         <v>1</v>
@@ -1737,11 +1788,11 @@
       <c r="K14" s="12">
         <v>1</v>
       </c>
-      <c r="L14" s="12">
-        <v>0</v>
+      <c r="L14" s="13">
+        <v>1</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
@@ -1769,35 +1820,43 @@
       <c r="AG14" s="19"/>
       <c r="AH14" s="20"/>
     </row>
-    <row r="15" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
       </c>
       <c r="D15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
       </c>
       <c r="F15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
         <v>0</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
@@ -1808,7 +1867,7 @@
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="20"/>
+      <c r="X15" s="19"/>
       <c r="Y15" s="18" t="s">
         <v>2</v>
       </c>
@@ -1826,33 +1885,41 @@
     </row>
     <row r="16" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
@@ -1863,7 +1930,7 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
-      <c r="X16" s="20"/>
+      <c r="X16" s="19"/>
       <c r="Y16" s="18" t="s">
         <v>2</v>
       </c>
@@ -1879,15 +1946,15 @@
       <c r="AG16" s="19"/>
       <c r="AH16" s="20"/>
     </row>
-    <row r="17" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11">
         <v>0</v>
       </c>
       <c r="D17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12">
         <v>1</v>
@@ -1896,18 +1963,26 @@
         <v>0</v>
       </c>
       <c r="G17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="12">
         <v>0</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
@@ -1918,7 +1993,7 @@
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
-      <c r="X17" s="20"/>
+      <c r="X17" s="19"/>
       <c r="Y17" s="18" t="s">
         <v>2</v>
       </c>
@@ -1936,7 +2011,7 @@
     </row>
     <row r="18" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C18" s="11">
         <v>0</v>
@@ -1945,19 +2020,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -1991,28 +2066,28 @@
     </row>
     <row r="19" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -2061,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -2101,7 +2176,7 @@
     </row>
     <row r="21" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11">
         <v>0</v>
@@ -2110,19 +2185,19 @@
         <v>1</v>
       </c>
       <c r="E21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="12">
         <v>0</v>
       </c>
       <c r="G21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12">
         <v>1</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -2156,7 +2231,7 @@
     </row>
     <row r="22" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C22" s="11">
         <v>0</v>
@@ -2165,19 +2240,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="12">
         <v>0</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -2195,21 +2270,23 @@
       <c r="W22" s="19"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="18" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="20"/>
     </row>
-    <row r="23" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C23" s="11">
         <v>0</v>
@@ -2218,19 +2295,19 @@
         <v>1</v>
       </c>
       <c r="E23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -2248,125 +2325,291 @@
       <c r="W23" s="19"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="18" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="20"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
+    <row r="24" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="20"/>
+    </row>
+    <row r="25" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="20"/>
+    </row>
+    <row r="26" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="20"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="68">
+    <mergeCell ref="M14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AD8:AH8"/>
@@ -2392,40 +2635,46 @@
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="M15:X15"/>
+    <mergeCell ref="M13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="M12:X12"/>
     <mergeCell ref="Y12:AC12"/>
     <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="M12:X12"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="I15:X15"/>
-    <mergeCell ref="I16:X16"/>
-    <mergeCell ref="I17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="I18:X18"/>
     <mergeCell ref="Y18:AC18"/>
     <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="I19:X19"/>
     <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="I18:X18"/>
+    <mergeCell ref="I19:X19"/>
     <mergeCell ref="I20:X20"/>
     <mergeCell ref="Y20:AC20"/>
     <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="I22:X22"/>
-    <mergeCell ref="Y22:AH22"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="Y23:AH23"/>
     <mergeCell ref="I21:X21"/>
     <mergeCell ref="Y21:AC21"/>
     <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="M14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="M13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="I22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="I25:X25"/>
+    <mergeCell ref="Y25:AH25"/>
+    <mergeCell ref="I26:X26"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="I24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="M17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="M16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/instructions.xlsx
+++ b/doc/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyh16\Desktop\loongarch_cpu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07C5D5-2A2C-4D4F-BC2A-12762FF1E863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3C93FB-354B-4F31-BFAA-42810703F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,15 +464,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -483,6 +474,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,8 +770,8 @@
   </sheetPr>
   <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -882,103 +882,103 @@
       </c>
     </row>
     <row r="2" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23">
-        <v>1</v>
-      </c>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="23">
-        <v>0</v>
-      </c>
-      <c r="L2" s="23">
-        <v>1</v>
-      </c>
-      <c r="M2" s="23">
-        <v>0</v>
-      </c>
-      <c r="N2" s="23">
-        <v>0</v>
-      </c>
-      <c r="O2" s="23">
-        <v>0</v>
-      </c>
-      <c r="P2" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="23">
-        <v>0</v>
-      </c>
-      <c r="R2" s="23">
-        <v>0</v>
-      </c>
-      <c r="S2" s="23">
-        <v>0</v>
-      </c>
-      <c r="T2" s="22">
-        <v>0</v>
-      </c>
-      <c r="U2" s="23">
-        <v>0</v>
-      </c>
-      <c r="V2" s="23">
-        <v>0</v>
-      </c>
-      <c r="W2" s="23">
-        <v>0</v>
-      </c>
-      <c r="X2" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="24">
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20">
+        <v>0</v>
+      </c>
+      <c r="S2" s="20">
+        <v>0</v>
+      </c>
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="20">
+        <v>0</v>
+      </c>
+      <c r="V2" s="20">
+        <v>0</v>
+      </c>
+      <c r="W2" s="20">
+        <v>0</v>
+      </c>
+      <c r="X2" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1007,35 +1007,35 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="24"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
@@ -1062,35 +1062,35 @@
       <c r="I4" s="12">
         <v>0</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="20"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="24"/>
     </row>
     <row r="5" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
@@ -1147,27 +1147,27 @@
       <c r="S5" s="12">
         <v>0</v>
       </c>
-      <c r="T5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="18" t="s">
+      <c r="T5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="20"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="24"/>
     </row>
     <row r="6" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
@@ -1224,27 +1224,27 @@
       <c r="S6" s="12">
         <v>0</v>
       </c>
-      <c r="T6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="18" t="s">
+      <c r="T6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="20"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="24"/>
     </row>
     <row r="7" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
@@ -1301,27 +1301,27 @@
       <c r="S7" s="12">
         <v>1</v>
       </c>
-      <c r="T7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="18" t="s">
+      <c r="T7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="20"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="24"/>
     </row>
     <row r="8" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
@@ -1378,27 +1378,27 @@
       <c r="S8" s="12">
         <v>0</v>
       </c>
-      <c r="T8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="18" t="s">
+      <c r="T8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="20"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="24"/>
     </row>
     <row r="9" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
@@ -1455,27 +1455,27 @@
       <c r="S9" s="12">
         <v>0</v>
       </c>
-      <c r="T9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="18" t="s">
+      <c r="T9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="20"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="24"/>
     </row>
     <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -1532,27 +1532,27 @@
       <c r="S10" s="12">
         <v>1</v>
       </c>
-      <c r="T10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="18" t="s">
+      <c r="T10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="20"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="24"/>
     </row>
     <row r="11" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
@@ -1609,27 +1609,27 @@
       <c r="S11" s="12">
         <v>0</v>
       </c>
-      <c r="T11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="18" t="s">
+      <c r="T11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="20"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="24"/>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
@@ -1665,34 +1665,34 @@
       <c r="L12" s="13">
         <v>1</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="18" t="s">
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="20"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="24"/>
     </row>
     <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
@@ -1728,34 +1728,34 @@
       <c r="L13" s="13">
         <v>0</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="18" t="s">
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="20"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="24"/>
     </row>
     <row r="14" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
@@ -1791,34 +1791,34 @@
       <c r="L14" s="13">
         <v>1</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="18" t="s">
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="20"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="24"/>
     </row>
     <row r="15" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
@@ -1854,34 +1854,34 @@
       <c r="L15" s="13">
         <v>0</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="18" t="s">
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="20"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="24"/>
     </row>
     <row r="16" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
@@ -1917,34 +1917,34 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="18" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="20"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="24"/>
     </row>
     <row r="17" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
@@ -1980,34 +1980,34 @@
       <c r="L17" s="12">
         <v>0</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="18" t="s">
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="20"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="24"/>
     </row>
     <row r="18" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
@@ -2031,38 +2031,38 @@
       <c r="H18" s="12">
         <v>0</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="18" t="s">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="20"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="24"/>
     </row>
     <row r="19" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
@@ -2086,38 +2086,38 @@
       <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="18" t="s">
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="20"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="24"/>
     </row>
     <row r="20" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
@@ -2141,38 +2141,38 @@
       <c r="H20" s="12">
         <v>0</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="18" t="s">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="20"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="24"/>
     </row>
     <row r="21" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
@@ -2196,38 +2196,38 @@
       <c r="H21" s="12">
         <v>1</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="18" t="s">
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="20"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="24"/>
     </row>
     <row r="22" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
@@ -2251,38 +2251,38 @@
       <c r="H22" s="12">
         <v>0</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="18" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="20"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="24"/>
     </row>
     <row r="23" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
@@ -2306,38 +2306,38 @@
       <c r="H23" s="12">
         <v>1</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="18" t="s">
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="20"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="24"/>
     </row>
     <row r="24" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
@@ -2361,38 +2361,38 @@
       <c r="H24" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="18" t="s">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="20"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="24"/>
     </row>
     <row r="25" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
@@ -2416,36 +2416,36 @@
       <c r="H25" s="12">
         <v>0</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="18" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="20"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="24"/>
     </row>
     <row r="26" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
@@ -2469,36 +2469,36 @@
       <c r="H26" s="12">
         <v>1</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="18" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="20"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="24"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
@@ -2607,25 +2607,14 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="M12:X12"/>
+    <mergeCell ref="AD6:AH6"/>
     <mergeCell ref="M14:X14"/>
     <mergeCell ref="Y14:AC14"/>
     <mergeCell ref="AD14:AH14"/>
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="J3:AC3"/>
-    <mergeCell ref="J4:AC4"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
     <mergeCell ref="T9:X9"/>
     <mergeCell ref="Y9:AC9"/>
     <mergeCell ref="AD9:AH9"/>
@@ -2635,19 +2624,30 @@
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="Y11:AC11"/>
     <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AH15"/>
     <mergeCell ref="M15:X15"/>
     <mergeCell ref="M13:X13"/>
     <mergeCell ref="Y13:AC13"/>
     <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="M12:X12"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="J3:AC3"/>
+    <mergeCell ref="J4:AC4"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="Y12:AC12"/>
     <mergeCell ref="AD12:AH12"/>
     <mergeCell ref="Y18:AC18"/>
     <mergeCell ref="AD18:AH18"/>
     <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AH15"/>
     <mergeCell ref="I18:X18"/>
     <mergeCell ref="I19:X19"/>
     <mergeCell ref="I20:X20"/>

--- a/doc/instructions.xlsx
+++ b/doc/instructions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyh16\Desktop\loongarch_cpu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3C93FB-354B-4F31-BFAA-42810703F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27BC68A-947C-4EF8-AB35-C0B4260EAAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>rk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,10 +769,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AH29"/>
+  <dimension ref="B1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -782,7 +783,7 @@
     <col min="35" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="8">
         <v>31</v>
@@ -881,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
@@ -982,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
@@ -1037,7 +1038,7 @@
       <c r="AG3" s="23"/>
       <c r="AH3" s="24"/>
     </row>
-    <row r="4" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1093,7 @@
       <c r="AG4" s="23"/>
       <c r="AH4" s="24"/>
     </row>
-    <row r="5" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1170,7 @@
       <c r="AG5" s="23"/>
       <c r="AH5" s="24"/>
     </row>
-    <row r="6" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1247,7 @@
       <c r="AG6" s="23"/>
       <c r="AH6" s="24"/>
     </row>
-    <row r="7" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1324,7 @@
       <c r="AG7" s="23"/>
       <c r="AH7" s="24"/>
     </row>
-    <row r="8" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1401,7 @@
       <c r="AG8" s="23"/>
       <c r="AH8" s="24"/>
     </row>
-    <row r="9" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1476,8 +1477,11 @@
       <c r="AF9" s="23"/>
       <c r="AG9" s="23"/>
       <c r="AH9" s="24"/>
-    </row>
-    <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1558,7 @@
       <c r="AG10" s="23"/>
       <c r="AH10" s="24"/>
     </row>
-    <row r="11" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1631,7 +1635,7 @@
       <c r="AG11" s="23"/>
       <c r="AH11" s="24"/>
     </row>
-    <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1694,7 +1698,7 @@
       <c r="AG12" s="23"/>
       <c r="AH12" s="24"/>
     </row>
-    <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1761,7 @@
       <c r="AG13" s="23"/>
       <c r="AH13" s="24"/>
     </row>
-    <row r="14" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1820,7 +1824,7 @@
       <c r="AG14" s="23"/>
       <c r="AH14" s="24"/>
     </row>
-    <row r="15" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1883,7 +1887,7 @@
       <c r="AG15" s="23"/>
       <c r="AH15" s="24"/>
     </row>
-    <row r="16" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
@@ -2607,6 +2611,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="M17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="M16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="I26:X26"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="I24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="I25:X25"/>
+    <mergeCell ref="Y25:AH25"/>
+    <mergeCell ref="I21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AH21"/>
+    <mergeCell ref="I22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="I18:X18"/>
+    <mergeCell ref="I19:X19"/>
+    <mergeCell ref="I20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="J3:AC3"/>
+    <mergeCell ref="J4:AC4"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="M15:X15"/>
+    <mergeCell ref="M13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
     <mergeCell ref="M12:X12"/>
     <mergeCell ref="AD6:AH6"/>
     <mergeCell ref="M14:X14"/>
@@ -2623,61 +2679,415 @@
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="T11:X11"/>
     <mergeCell ref="Y11:AC11"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="M15:X15"/>
-    <mergeCell ref="M13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AD4:AH4"/>
-    <mergeCell ref="J3:AC3"/>
-    <mergeCell ref="J4:AC4"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="I18:X18"/>
-    <mergeCell ref="I19:X19"/>
-    <mergeCell ref="I20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="I21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="I22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="I25:X25"/>
-    <mergeCell ref="Y25:AH25"/>
-    <mergeCell ref="I26:X26"/>
-    <mergeCell ref="Y26:AH26"/>
-    <mergeCell ref="I24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="M17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="M16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE8839E-0796-4DA6-A1D7-3DCBBD296BA0}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/instructions.xlsx
+++ b/doc/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyh16\Desktop\loongarch_cpu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27BC68A-947C-4EF8-AB35-C0B4260EAAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE03A587-7F22-40C1-9A5B-46CA389DA595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,12 +241,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -412,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,6 +491,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2611,37 +2624,27 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="M16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="I26:X26"/>
-    <mergeCell ref="Y26:AH26"/>
-    <mergeCell ref="I24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="I23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="I25:X25"/>
-    <mergeCell ref="Y25:AH25"/>
-    <mergeCell ref="I21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="I22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="I18:X18"/>
-    <mergeCell ref="I19:X19"/>
-    <mergeCell ref="I20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="M14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="M13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="M12:X12"/>
     <mergeCell ref="Y15:AC15"/>
     <mergeCell ref="AD15:AH15"/>
     <mergeCell ref="AD3:AH3"/>
@@ -2658,27 +2661,37 @@
     <mergeCell ref="Y6:AC6"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="M15:X15"/>
-    <mergeCell ref="M13:X13"/>
-    <mergeCell ref="Y13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="M12:X12"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="M14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="I18:X18"/>
+    <mergeCell ref="I19:X19"/>
+    <mergeCell ref="I20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="I21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AH21"/>
+    <mergeCell ref="I22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="I23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="I25:X25"/>
+    <mergeCell ref="Y25:AH25"/>
+    <mergeCell ref="I26:X26"/>
+    <mergeCell ref="Y26:AH26"/>
+    <mergeCell ref="I24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="M17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="M16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="AD16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2691,54 +2704,54 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
+      <c r="B1" s="26">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26">
+        <v>0</v>
+      </c>
+      <c r="F1" s="26">
+        <v>1</v>
+      </c>
+      <c r="G1" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3042,48 +3055,210 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="26">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="26">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="26">
+        <v>0</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>1</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="26">
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="25" t="s">
         <v>22</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/instructions.xlsx
+++ b/doc/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyh16\Desktop\loongarch_cpu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE03A587-7F22-40C1-9A5B-46CA389DA595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D362F4-F24D-4A10-B2A3-ED57383CC0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -782,10 +782,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AJ29"/>
+  <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -796,7 +796,7 @@
     <col min="35" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="8">
         <v>31</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="AG3" s="23"/>
       <c r="AH3" s="24"/>
     </row>
-    <row r="4" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="AG4" s="23"/>
       <c r="AH4" s="24"/>
     </row>
-    <row r="5" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="AG5" s="23"/>
       <c r="AH5" s="24"/>
     </row>
-    <row r="6" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="AG6" s="23"/>
       <c r="AH6" s="24"/>
     </row>
-    <row r="7" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="AG7" s="23"/>
       <c r="AH7" s="24"/>
     </row>
-    <row r="8" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="AG8" s="23"/>
       <c r="AH8" s="24"/>
     </row>
-    <row r="9" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1490,11 +1490,8 @@
       <c r="AF9" s="23"/>
       <c r="AG9" s="23"/>
       <c r="AH9" s="24"/>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1568,7 @@
       <c r="AG10" s="23"/>
       <c r="AH10" s="24"/>
     </row>
-    <row r="11" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1648,7 +1645,7 @@
       <c r="AG11" s="23"/>
       <c r="AH11" s="24"/>
     </row>
-    <row r="12" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1711,7 +1708,7 @@
       <c r="AG12" s="23"/>
       <c r="AH12" s="24"/>
     </row>
-    <row r="13" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1774,7 +1771,7 @@
       <c r="AG13" s="23"/>
       <c r="AH13" s="24"/>
     </row>
-    <row r="14" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1834,7 @@
       <c r="AG14" s="23"/>
       <c r="AH14" s="24"/>
     </row>
-    <row r="15" spans="2:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1897,7 @@
       <c r="AG15" s="23"/>
       <c r="AH15" s="24"/>
     </row>
-    <row r="16" spans="2:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
@@ -2703,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE8839E-0796-4DA6-A1D7-3DCBBD296BA0}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2756,255 +2753,255 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" s="26">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="B6" s="26">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="B11" s="26">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="B12" s="26">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="B13" s="26">
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>

--- a/doc/instructions.xlsx
+++ b/doc/instructions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyh16\Desktop\loongarch_cpu\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D362F4-F24D-4A10-B2A3-ED57383CC0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103AF401-8359-4DAA-915B-78983823F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,6 +484,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,13 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +785,8 @@
   </sheetPr>
   <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1021,35 +1022,35 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="24"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="27"/>
     </row>
     <row r="4" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
@@ -1076,35 +1077,35 @@
       <c r="I4" s="12">
         <v>0</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="24"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="27"/>
     </row>
     <row r="5" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
@@ -1161,27 +1162,27 @@
       <c r="S5" s="12">
         <v>0</v>
       </c>
-      <c r="T5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="22" t="s">
+      <c r="T5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="24"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="27"/>
     </row>
     <row r="6" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
@@ -1238,27 +1239,27 @@
       <c r="S6" s="12">
         <v>0</v>
       </c>
-      <c r="T6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="22" t="s">
+      <c r="T6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="24"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="27"/>
     </row>
     <row r="7" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
@@ -1315,27 +1316,27 @@
       <c r="S7" s="12">
         <v>1</v>
       </c>
-      <c r="T7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="22" t="s">
+      <c r="T7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="24"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="27"/>
     </row>
     <row r="8" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
@@ -1392,27 +1393,27 @@
       <c r="S8" s="12">
         <v>0</v>
       </c>
-      <c r="T8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="22" t="s">
+      <c r="T8" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="24"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="27"/>
     </row>
     <row r="9" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
@@ -1469,27 +1470,27 @@
       <c r="S9" s="12">
         <v>0</v>
       </c>
-      <c r="T9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="22" t="s">
+      <c r="T9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="24"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
@@ -1546,27 +1547,27 @@
       <c r="S10" s="12">
         <v>1</v>
       </c>
-      <c r="T10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="22" t="s">
+      <c r="T10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="24"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
@@ -1623,27 +1624,27 @@
       <c r="S11" s="12">
         <v>0</v>
       </c>
-      <c r="T11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="22" t="s">
+      <c r="T11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="24"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="27"/>
     </row>
     <row r="12" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
@@ -1679,34 +1680,34 @@
       <c r="L12" s="13">
         <v>1</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="22" t="s">
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="24"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="27"/>
     </row>
     <row r="13" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
@@ -1742,34 +1743,34 @@
       <c r="L13" s="13">
         <v>0</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="22" t="s">
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="24"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
@@ -1805,34 +1806,34 @@
       <c r="L14" s="13">
         <v>1</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="22" t="s">
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="24"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="27"/>
     </row>
     <row r="15" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
@@ -1868,34 +1869,34 @@
       <c r="L15" s="13">
         <v>0</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="22" t="s">
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="24"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="27"/>
     </row>
     <row r="16" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
@@ -1931,34 +1932,34 @@
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="22" t="s">
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="24"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="27"/>
     </row>
     <row r="17" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
@@ -1994,34 +1995,34 @@
       <c r="L17" s="12">
         <v>0</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="22" t="s">
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="27"/>
     </row>
     <row r="18" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
@@ -2045,38 +2046,38 @@
       <c r="H18" s="12">
         <v>0</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="22" t="s">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="24"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="27"/>
     </row>
     <row r="19" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
@@ -2100,38 +2101,38 @@
       <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="22" t="s">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="27"/>
     </row>
     <row r="20" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
@@ -2155,38 +2156,38 @@
       <c r="H20" s="12">
         <v>0</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="22" t="s">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="27"/>
     </row>
     <row r="21" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
@@ -2210,38 +2211,38 @@
       <c r="H21" s="12">
         <v>1</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="22" t="s">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="24"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="27"/>
     </row>
     <row r="22" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
@@ -2265,38 +2266,38 @@
       <c r="H22" s="12">
         <v>0</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="22" t="s">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="24"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="27"/>
     </row>
     <row r="23" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
@@ -2320,38 +2321,38 @@
       <c r="H23" s="12">
         <v>1</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="22" t="s">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="24"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="27"/>
     </row>
     <row r="24" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
@@ -2375,38 +2376,38 @@
       <c r="H24" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="22" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="24"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="27"/>
     </row>
     <row r="25" spans="2:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
@@ -2430,36 +2431,36 @@
       <c r="H25" s="12">
         <v>0</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="22" t="s">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="24"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="27"/>
     </row>
     <row r="26" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
@@ -2483,36 +2484,36 @@
       <c r="H26" s="12">
         <v>1</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="22" t="s">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="24"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="27"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
@@ -2707,301 +2708,301 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26">
-        <v>0</v>
-      </c>
-      <c r="C1" s="26">
-        <v>1</v>
-      </c>
-      <c r="D1" s="26">
-        <v>0</v>
-      </c>
-      <c r="E1" s="26">
-        <v>0</v>
-      </c>
-      <c r="F1" s="26">
-        <v>1</v>
-      </c>
-      <c r="G1" s="26">
+      <c r="B1" s="23">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23">
+        <v>1</v>
+      </c>
+      <c r="D1" s="23">
+        <v>0</v>
+      </c>
+      <c r="E1" s="23">
+        <v>0</v>
+      </c>
+      <c r="F1" s="23">
+        <v>1</v>
+      </c>
+      <c r="G1" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0</v>
-      </c>
-      <c r="F2" s="26">
-        <v>1</v>
-      </c>
-      <c r="G2" s="26">
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26">
-        <v>0</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="B5" s="23">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26">
-        <v>0</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="B6" s="23">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="B7" s="23">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
-        <v>1</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0</v>
-      </c>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="26">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26">
-        <v>1</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="26">
-        <v>0</v>
-      </c>
-      <c r="C10" s="26">
-        <v>1</v>
-      </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="26">
-        <v>0</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="26">
-        <v>0</v>
-      </c>
-      <c r="C11" s="26">
-        <v>1</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="26">
-        <v>1</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0</v>
-      </c>
-      <c r="E12" s="26">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
-        <v>1</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="B12" s="23">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26">
-        <v>1</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0</v>
-      </c>
-      <c r="E13" s="26">
-        <v>0</v>
-      </c>
-      <c r="F13" s="26">
-        <v>1</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3052,209 +3053,209 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0</v>
-      </c>
-      <c r="E16" s="26">
-        <v>0</v>
-      </c>
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26">
-        <v>0</v>
-      </c>
-      <c r="C17" s="26">
-        <v>0</v>
-      </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>1</v>
-      </c>
-      <c r="G17" s="26">
+      <c r="B17" s="23">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="26">
-        <v>0</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="26">
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="26">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0</v>
-      </c>
-      <c r="D19" s="26">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26">
-        <v>1</v>
-      </c>
-      <c r="G19" s="26">
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
+      <c r="B20" s="23">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26">
-        <v>0</v>
-      </c>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <v>1</v>
-      </c>
-      <c r="G21" s="26">
+      <c r="B21" s="23">
+        <v>0</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="26">
-        <v>0</v>
-      </c>
-      <c r="C22" s="26">
-        <v>1</v>
-      </c>
-      <c r="D22" s="26">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26">
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="26">
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <v>1</v>
-      </c>
-      <c r="G23" s="26">
+      <c r="B23" s="23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="26">
-        <v>0</v>
-      </c>
-      <c r="C24" s="26">
-        <v>1</v>
-      </c>
-      <c r="D24" s="26">
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26">
-        <v>1</v>
-      </c>
-      <c r="G24" s="26">
+      <c r="B24" s="23">
+        <v>0</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23">
         <v>0</v>
       </c>
     </row>
